--- a/Sample1.xlsx
+++ b/Sample1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="15975" windowHeight="8640"/>
+    <workbookView xWindow="630" yWindow="630" windowWidth="15975" windowHeight="8640" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -325,13 +325,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J29" totalsRowShown="0">
-  <autoFilter ref="A1:J29">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J29"/>
   <tableColumns count="10">
     <tableColumn id="1" name="TestScenarioID"/>
     <tableColumn id="2" name="TestCaseID"/>
@@ -635,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -725,7 +719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -739,7 +733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>25</v>
       </c>
@@ -776,7 +770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -813,7 +807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>17</v>
       </c>
@@ -827,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>21</v>
       </c>
@@ -841,7 +835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>25</v>
       </c>
@@ -878,7 +872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>18</v>
       </c>
@@ -889,7 +883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>22</v>
       </c>
@@ -926,7 +920,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>17</v>
       </c>
@@ -940,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>54</v>
       </c>
@@ -954,7 +948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>21</v>
       </c>
@@ -968,7 +962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>57</v>
       </c>
@@ -1005,7 +999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>18</v>
       </c>
@@ -1042,7 +1036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>17</v>
       </c>
@@ -1056,7 +1050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>54</v>
       </c>
@@ -1070,7 +1064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>21</v>
       </c>
@@ -1084,7 +1078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>57</v>
       </c>
@@ -1121,7 +1115,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>18</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>22</v>
       </c>
